--- a/sample.xlsx
+++ b/sample.xlsx
@@ -416,226 +416,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
+      <c r="B2">
+        <v>0.660392722</v>
+      </c>
       <c r="C2">
-        <v>0.660392722</v>
+        <v>0.470143795</v>
       </c>
       <c r="D2">
-        <v>0.470143795</v>
+        <v>0.363490425</v>
       </c>
       <c r="E2">
-        <v>0.363490425</v>
-      </c>
-      <c r="F2">
         <v>0.254916742</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
         <v>6</v>
       </c>
+      <c r="B3">
+        <v>0.651977864</v>
+      </c>
       <c r="C3">
-        <v>0.651977864</v>
+        <v>0.119390334</v>
       </c>
       <c r="D3">
-        <v>0.119390334</v>
+        <v>0.163289902</v>
       </c>
       <c r="E3">
-        <v>0.163289902</v>
-      </c>
-      <c r="F3">
         <v>0.868639835</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
+      <c r="B4">
+        <v>0.62350692</v>
+      </c>
       <c r="C4">
-        <v>0.62350692</v>
+        <v>0.233219785</v>
       </c>
       <c r="D4">
-        <v>0.233219785</v>
+        <v>0.810036236</v>
       </c>
       <c r="E4">
-        <v>0.810036236</v>
-      </c>
-      <c r="F4">
         <v>0.049479099</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
+      <c r="B5">
+        <v>0.236243485</v>
+      </c>
       <c r="C5">
-        <v>0.236243485</v>
+        <v>0.322549591</v>
       </c>
       <c r="D5">
-        <v>0.322549591</v>
+        <v>0.705131969</v>
       </c>
       <c r="E5">
-        <v>0.705131969</v>
-      </c>
-      <c r="F5">
         <v>0.639841641</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
         <v>9</v>
       </c>
+      <c r="B6">
+        <v>0.28397026</v>
+      </c>
       <c r="C6">
-        <v>0.28397026</v>
+        <v>0.378502346</v>
       </c>
       <c r="D6">
-        <v>0.378502346</v>
+        <v>0.330813117</v>
       </c>
       <c r="E6">
-        <v>0.330813117</v>
-      </c>
-      <c r="F6">
         <v>0.478675009</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
+      <c r="B7">
+        <v>0.862496276</v>
+      </c>
       <c r="C7">
-        <v>0.862496276</v>
+        <v>0.614190923</v>
       </c>
       <c r="D7">
-        <v>0.614190923</v>
+        <v>0.590256758</v>
       </c>
       <c r="E7">
-        <v>0.590256758</v>
-      </c>
-      <c r="F7">
         <v>0.600983489</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
         <v>11</v>
       </c>
+      <c r="B8">
+        <v>0.577964408</v>
+      </c>
       <c r="C8">
-        <v>0.577964408</v>
+        <v>0.410580572</v>
       </c>
       <c r="D8">
-        <v>0.410580572</v>
+        <v>0.889237209</v>
       </c>
       <c r="E8">
-        <v>0.889237209</v>
-      </c>
-      <c r="F8">
         <v>0.67234461</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
         <v>12</v>
       </c>
+      <c r="B9">
+        <v>0.517347915</v>
+      </c>
       <c r="C9">
-        <v>0.517347915</v>
+        <v>0.562585873</v>
       </c>
       <c r="D9">
-        <v>0.562585873</v>
+        <v>0.757849734</v>
       </c>
       <c r="E9">
-        <v>0.757849734</v>
-      </c>
-      <c r="F9">
         <v>0.508075032</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
         <v>13</v>
       </c>
+      <c r="B10">
+        <v>0.256814977</v>
+      </c>
       <c r="C10">
-        <v>0.256814977</v>
+        <v>0.144033603</v>
       </c>
       <c r="D10">
-        <v>0.144033603</v>
+        <v>0.386706816</v>
       </c>
       <c r="E10">
-        <v>0.386706816</v>
-      </c>
-      <c r="F10">
         <v>0.128252476</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
         <v>14</v>
       </c>
+      <c r="B11">
+        <v>0.599754136</v>
+      </c>
       <c r="C11">
-        <v>0.599754136</v>
+        <v>0.603114064</v>
       </c>
       <c r="D11">
-        <v>0.603114064</v>
+        <v>0.911859189</v>
       </c>
       <c r="E11">
-        <v>0.911859189</v>
-      </c>
-      <c r="F11">
         <v>0.366476032</v>
       </c>
     </row>
